--- a/www/IndicatorsPerCountry/Malawi_GDPperCapita_TerritorialRef_1964_2012_CCode_454.xlsx
+++ b/www/IndicatorsPerCountry/Malawi_GDPperCapita_TerritorialRef_1964_2012_CCode_454.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Malawi_GDPperCapita_TerritorialRef_1964_2012_CCode_454.xlsx
+++ b/www/IndicatorsPerCountry/Malawi_GDPperCapita_TerritorialRef_1964_2012_CCode_454.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,196 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>455</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>539.625114694</t>
-  </si>
-  <si>
-    <t>563.998197702</t>
-  </si>
-  <si>
-    <t>503.438659996</t>
-  </si>
-  <si>
-    <t>542.471235809</t>
-  </si>
-  <si>
-    <t>494.75795618</t>
-  </si>
-  <si>
-    <t>566.275940965</t>
-  </si>
-  <si>
-    <t>607.236930942</t>
-  </si>
-  <si>
-    <t>628.604966674</t>
-  </si>
-  <si>
-    <t>617.251169694</t>
-  </si>
-  <si>
-    <t>621.204469552</t>
-  </si>
-  <si>
-    <t>608.799392677</t>
-  </si>
-  <si>
-    <t>567.814543738</t>
-  </si>
-  <si>
-    <t>562.083044115</t>
-  </si>
-  <si>
-    <t>577.563825269</t>
-  </si>
-  <si>
-    <t>593.513078667</t>
-  </si>
-  <si>
-    <t>592.881313931</t>
-  </si>
-  <si>
-    <t>589.228936396</t>
-  </si>
-  <si>
-    <t>628.061380225</t>
-  </si>
-  <si>
-    <t>662.246941046</t>
-  </si>
-  <si>
-    <t>702.623188203</t>
-  </si>
-  <si>
-    <t>728.237681866</t>
+    <t>516</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>899.975111985489</t>
+  </si>
+  <si>
+    <t>802.930500182944</t>
+  </si>
+  <si>
+    <t>865.763191642982</t>
+  </si>
+  <si>
+    <t>791.550060293761</t>
+  </si>
+  <si>
+    <t>906.879016932832</t>
+  </si>
+  <si>
+    <t>972.821356136859</t>
+  </si>
+  <si>
+    <t>1005.85213867307</t>
+  </si>
+  <si>
+    <t>986.028711725408</t>
+  </si>
+  <si>
+    <t>989.835926812808</t>
+  </si>
+  <si>
+    <t>967.087207836506</t>
+  </si>
+  <si>
+    <t>899.230502895667</t>
+  </si>
+  <si>
+    <t>886.197835153292</t>
+  </si>
+  <si>
+    <t>905.795457341719</t>
+  </si>
+  <si>
+    <t>922.761274523614</t>
+  </si>
+  <si>
+    <t>920.049945368312</t>
+  </si>
+  <si>
+    <t>929.476192560891</t>
+  </si>
+  <si>
+    <t>982.391645260718</t>
+  </si>
+  <si>
+    <t>1017.82081007633</t>
+  </si>
+  <si>
+    <t>1061.94946131428</t>
+  </si>
+  <si>
+    <t>1091.58764533483</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1112</t>
   </si>
   <si>
     <t>Description</t>
@@ -1348,6 +1366,108 @@
         <v>64</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1363,50 +1483,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
